--- a/medicine/Enfance/Allan_W._Eckert/Allan_W._Eckert.xlsx
+++ b/medicine/Enfance/Allan_W._Eckert/Allan_W._Eckert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allan Wesley Eckert, né le 30 janvier 1931 à Buffalo dans l'État de New York et mort le 7 juillet 2011 à Corona en Californie, est un historien, un naturaliste et un auteur américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allan W. Eckert est né le 30 janvier 1931 à Buffalo dans l'État de New York. Il est élevé dans l'Illinois, dans la région de Chicago, mais vit longtemps à Bellefontaine, dans l'Ohio, où il va à l'université.
 Jeune homme, il  parcourt États-Unis en auto-stop, se nourrissant de ce que lui fournit la terre et étudiant la vie sauvage. Il commence à écrire sur la nature et l'histoire américaine à l'âge de treize ans puis devient l'auteur de nombreux livres populaires pour adultes et enfants. Sept de ses livres furent nommés pour le prix Pulitzer.
@@ -548,7 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ses livres
+          <t>Ses livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La Colline du faucon, Presses de la Cité, 1975 ((en) Incident at Hawk's Hill, 1971)Réédité sous le titre La Rencontre par les éditions Hachette Jeunesse en 2000  (ISBN 2-01-200550-0)</t>
         </is>
       </c>
@@ -577,7 +597,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Allan W. Eckert » (voir la liste des auteurs).</t>
         </is>
